--- a/Assets/Script/DialogDB.xlsx
+++ b/Assets/Script/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ynoe3\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GUNHYEONG\Desktop\ghostpital\Ghospital_merge\Assets\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89CAAD50-1FDE-4BCD-A190-575D50CABEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE74109-63D2-4597-A85B-517E9BE8C86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{B7DB8827-C3E0-4BE3-9DF9-216CD21B5A13}"/>
+    <workbookView xWindow="4095" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{B7DB8827-C3E0-4BE3-9DF9-216CD21B5A13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>헉 괴물이다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,6 +54,10 @@
   </si>
   <si>
     <t xml:space="preserve">(쫓아가서 죽인다) </t>
+  </si>
+  <si>
+    <t>헉 괴물이다.. (뒤로 슬쩍 빠진다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
